--- a/Code/Results/Cases/Case_1_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9719288336159907</v>
+        <v>1.027777443275147</v>
       </c>
       <c r="D2">
-        <v>1.037211065243125</v>
+        <v>1.034802810138583</v>
       </c>
       <c r="E2">
-        <v>0.9871163388503055</v>
+        <v>1.036755587930699</v>
       </c>
       <c r="F2">
-        <v>0.9862698372848564</v>
+        <v>1.045175645495356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049854469324111</v>
+        <v>1.034044921997951</v>
       </c>
       <c r="J2">
-        <v>0.9949828388525594</v>
+        <v>1.032933430592864</v>
       </c>
       <c r="K2">
-        <v>1.048175234807711</v>
+        <v>1.037601237135002</v>
       </c>
       <c r="L2">
-        <v>0.9987581303392025</v>
+        <v>1.039548421822541</v>
       </c>
       <c r="M2">
-        <v>0.9979238282396659</v>
+        <v>1.047944622558245</v>
       </c>
       <c r="N2">
-        <v>0.9963958286098568</v>
+        <v>1.034400314543426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9791559636035513</v>
+        <v>1.02910187858249</v>
       </c>
       <c r="D3">
-        <v>1.040944684750276</v>
+        <v>1.035349979543521</v>
       </c>
       <c r="E3">
-        <v>0.993825114641863</v>
+        <v>1.037981007789417</v>
       </c>
       <c r="F3">
-        <v>0.9948167391137862</v>
+        <v>1.046615171083977</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052153784768317</v>
+        <v>1.034239994587896</v>
       </c>
       <c r="J3">
-        <v>1.000231449763015</v>
+        <v>1.03389627101164</v>
       </c>
       <c r="K3">
-        <v>1.051079161963475</v>
+        <v>1.037958367879821</v>
       </c>
       <c r="L3">
-        <v>1.004537618781724</v>
+        <v>1.040582406759339</v>
       </c>
       <c r="M3">
-        <v>1.005516373169841</v>
+        <v>1.04919389986713</v>
       </c>
       <c r="N3">
-        <v>1.001651893149829</v>
+        <v>1.035364522306036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9836531936296441</v>
+        <v>1.029955198089136</v>
       </c>
       <c r="D4">
-        <v>1.043250952242687</v>
+        <v>1.035699477172608</v>
       </c>
       <c r="E4">
-        <v>0.9979902640114271</v>
+        <v>1.038769278755952</v>
       </c>
       <c r="F4">
-        <v>1.000089526202014</v>
+        <v>1.04753768032756</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053542499217015</v>
+        <v>1.034360504729651</v>
       </c>
       <c r="J4">
-        <v>1.003484501667255</v>
+        <v>1.034515204054786</v>
       </c>
       <c r="K4">
-        <v>1.052853962817649</v>
+        <v>1.038184202099592</v>
       </c>
       <c r="L4">
-        <v>1.008113005448739</v>
+        <v>1.041246260345409</v>
       </c>
       <c r="M4">
-        <v>1.010186870841459</v>
+        <v>1.04999281335286</v>
       </c>
       <c r="N4">
-        <v>1.004909564760904</v>
+        <v>1.035984334305097</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9855039310703615</v>
+        <v>1.03031306210619</v>
       </c>
       <c r="D5">
-        <v>1.044195698618059</v>
+        <v>1.035845315249325</v>
       </c>
       <c r="E5">
-        <v>0.9997021257206224</v>
+        <v>1.039099561511138</v>
       </c>
       <c r="F5">
-        <v>1.002248845947916</v>
+        <v>1.047923370719239</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054103844037649</v>
+        <v>1.034409799648978</v>
       </c>
       <c r="J5">
-        <v>1.004820166124528</v>
+        <v>1.034774431696239</v>
       </c>
       <c r="K5">
-        <v>1.0535764704737</v>
+        <v>1.03827788563578</v>
       </c>
       <c r="L5">
-        <v>1.009579456660632</v>
+        <v>1.041524106551226</v>
       </c>
       <c r="M5">
-        <v>1.012096284025214</v>
+        <v>1.050326424833028</v>
       </c>
       <c r="N5">
-        <v>1.006247126014909</v>
+        <v>1.036243930079534</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9858124190299499</v>
+        <v>1.030373098203734</v>
       </c>
       <c r="D6">
-        <v>1.044352909335572</v>
+        <v>1.035869738147932</v>
       </c>
       <c r="E6">
-        <v>0.9999873367344847</v>
+        <v>1.039154952805458</v>
       </c>
       <c r="F6">
-        <v>1.002608156902616</v>
+        <v>1.047988005133397</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05419681197764</v>
+        <v>1.034417996301208</v>
       </c>
       <c r="J6">
-        <v>1.005042621334321</v>
+        <v>1.034817900370803</v>
       </c>
       <c r="K6">
-        <v>1.053696433289837</v>
+        <v>1.038293541800386</v>
       </c>
       <c r="L6">
-        <v>1.009823603816569</v>
+        <v>1.041570685787011</v>
       </c>
       <c r="M6">
-        <v>1.012413818358782</v>
+        <v>1.050382307935886</v>
       </c>
       <c r="N6">
-        <v>1.006469897136616</v>
+        <v>1.036287460484602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9836780763436689</v>
+        <v>1.029959983297485</v>
       </c>
       <c r="D7">
-        <v>1.043263671703608</v>
+        <v>1.035701430153224</v>
       </c>
       <c r="E7">
-        <v>0.9980132882778064</v>
+        <v>1.038773696345654</v>
       </c>
       <c r="F7">
-        <v>1.000118599227175</v>
+        <v>1.047542842303623</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053550086693709</v>
+        <v>1.034361168783341</v>
       </c>
       <c r="J7">
-        <v>1.003502471406296</v>
+        <v>1.034518671676022</v>
       </c>
       <c r="K7">
-        <v>1.052863708167708</v>
+        <v>1.038185458842597</v>
       </c>
       <c r="L7">
-        <v>1.008132740900111</v>
+        <v>1.041249977793014</v>
       </c>
       <c r="M7">
-        <v>1.010212592087388</v>
+        <v>1.049997279918407</v>
       </c>
       <c r="N7">
-        <v>1.004927560019035</v>
+        <v>1.035987806850752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9744103116402489</v>
+        <v>1.028225809726419</v>
       </c>
       <c r="D8">
-        <v>1.03849648670269</v>
+        <v>1.034988672589767</v>
       </c>
       <c r="E8">
-        <v>0.9894219084249039</v>
+        <v>1.037170694062133</v>
       </c>
       <c r="F8">
-        <v>0.9892144308055756</v>
+        <v>1.045664002935994</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05065286197037</v>
+        <v>1.034112031452158</v>
       </c>
       <c r="J8">
-        <v>0.9967877849616643</v>
+        <v>1.033259678089199</v>
       </c>
       <c r="K8">
-        <v>1.049179074717375</v>
+        <v>1.037723019240659</v>
       </c>
       <c r="L8">
-        <v>1.000747099193154</v>
+        <v>1.039898944279025</v>
       </c>
       <c r="M8">
-        <v>1.000542509077299</v>
+        <v>1.048368785826935</v>
       </c>
       <c r="N8">
-        <v>0.9982033379494671</v>
+        <v>1.034727025348628</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9565485817940956</v>
+        <v>1.025141370326956</v>
       </c>
       <c r="D9">
-        <v>1.029180088417486</v>
+        <v>1.033697763537451</v>
       </c>
       <c r="E9">
-        <v>0.9727802889027198</v>
+        <v>1.034309916142613</v>
       </c>
       <c r="F9">
-        <v>0.9677970464676381</v>
+        <v>1.042284024192095</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044721676872486</v>
+        <v>1.033629206838212</v>
       </c>
       <c r="J9">
-        <v>0.9837348784991927</v>
+        <v>1.03100951615009</v>
       </c>
       <c r="K9">
-        <v>1.041816837036654</v>
+        <v>1.036867869842036</v>
       </c>
       <c r="L9">
-        <v>0.986330984647226</v>
+        <v>1.03747801706583</v>
       </c>
       <c r="M9">
-        <v>0.9814351353364758</v>
+        <v>1.045426238026363</v>
       </c>
       <c r="N9">
-        <v>0.9851318948626293</v>
+        <v>1.032473667921467</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9433430764469621</v>
+        <v>1.023065218637142</v>
       </c>
       <c r="D10">
-        <v>1.022222756581652</v>
+        <v>1.032813591761838</v>
       </c>
       <c r="E10">
-        <v>0.9604103500688272</v>
+        <v>1.032377863037827</v>
       </c>
       <c r="F10">
-        <v>0.9516433589227487</v>
+        <v>1.039983268898548</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040097032632395</v>
+        <v>1.033277779622235</v>
       </c>
       <c r="J10">
-        <v>0.974000023429048</v>
+        <v>1.029487628823372</v>
       </c>
       <c r="K10">
-        <v>1.036202039084652</v>
+        <v>1.036270613761782</v>
       </c>
       <c r="L10">
-        <v>0.9755331918651154</v>
+        <v>1.035836453195587</v>
       </c>
       <c r="M10">
-        <v>0.9669442723682999</v>
+        <v>1.043414695831009</v>
       </c>
       <c r="N10">
-        <v>0.9753832151816811</v>
+        <v>1.030949619340183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.937238572229</v>
+        <v>1.022161364788882</v>
       </c>
       <c r="D11">
-        <v>1.018994598264718</v>
+        <v>1.032425121673025</v>
       </c>
       <c r="E11">
-        <v>0.9546732909697775</v>
+        <v>1.031535219976805</v>
       </c>
       <c r="F11">
-        <v>0.9440866722026252</v>
+        <v>1.038975550853281</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037901197745228</v>
+        <v>1.033118573627305</v>
       </c>
       <c r="J11">
-        <v>0.9694772585213229</v>
+        <v>1.028823351196992</v>
       </c>
       <c r="K11">
-        <v>1.03356697932445</v>
+        <v>1.036005528687767</v>
       </c>
       <c r="L11">
-        <v>0.9705038023081719</v>
+        <v>1.035118954516422</v>
       </c>
       <c r="M11">
-        <v>0.9601461133759661</v>
+        <v>1.042531658484288</v>
       </c>
       <c r="N11">
-        <v>0.9708540274290192</v>
+        <v>1.030284398363379</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9349044322132647</v>
+        <v>1.021824888896377</v>
       </c>
       <c r="D12">
-        <v>1.017758886246742</v>
+        <v>1.032279979857933</v>
       </c>
       <c r="E12">
-        <v>0.9524764757990675</v>
+        <v>1.03122130258515</v>
       </c>
       <c r="F12">
-        <v>0.9411823732225246</v>
+        <v>1.038599495818703</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037052725653021</v>
+        <v>1.033058377540404</v>
       </c>
       <c r="J12">
-        <v>0.9677442330601324</v>
+        <v>1.028575803415059</v>
       </c>
       <c r="K12">
-        <v>1.03255358349242</v>
+        <v>1.035906089581178</v>
       </c>
       <c r="L12">
-        <v>0.9685745297668535</v>
+        <v>1.034851426150483</v>
       </c>
       <c r="M12">
-        <v>0.9575303854524363</v>
+        <v>1.042201834362181</v>
       </c>
       <c r="N12">
-        <v>0.9691185408728926</v>
+        <v>1.030036499035202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9354082895347762</v>
+        <v>1.021897098016509</v>
       </c>
       <c r="D13">
-        <v>1.018025687456777</v>
+        <v>1.032311151633158</v>
       </c>
       <c r="E13">
-        <v>0.9529508391376275</v>
+        <v>1.031288680880304</v>
       </c>
       <c r="F13">
-        <v>0.9418100061780493</v>
+        <v>1.038680240128699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037236283006651</v>
+        <v>1.03307133781701</v>
       </c>
       <c r="J13">
-        <v>0.9681185026280393</v>
+        <v>1.028628939880647</v>
       </c>
       <c r="K13">
-        <v>1.032772601592893</v>
+        <v>1.035927463762702</v>
       </c>
       <c r="L13">
-        <v>0.9689912806200554</v>
+        <v>1.034908858134378</v>
       </c>
       <c r="M13">
-        <v>0.9580957909770497</v>
+        <v>1.042272665625452</v>
       </c>
       <c r="N13">
-        <v>0.9694933419465154</v>
+        <v>1.030089710960665</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9370470481270077</v>
+        <v>1.02213356684867</v>
       </c>
       <c r="D14">
-        <v>1.018893229308564</v>
+        <v>1.032413141495155</v>
       </c>
       <c r="E14">
-        <v>0.9544931012745362</v>
+        <v>1.031509290358337</v>
       </c>
       <c r="F14">
-        <v>0.9438486753795824</v>
+        <v>1.038944501713727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037831757977496</v>
+        <v>1.033113619439144</v>
       </c>
       <c r="J14">
-        <v>0.9693351342566806</v>
+        <v>1.0288029053152</v>
       </c>
       <c r="K14">
-        <v>1.033483944447969</v>
+        <v>1.03599732892117</v>
       </c>
       <c r="L14">
-        <v>0.9703456280547292</v>
+        <v>1.03509686136554</v>
       </c>
       <c r="M14">
-        <v>0.9599318239289982</v>
+        <v>1.042504432450147</v>
       </c>
       <c r="N14">
-        <v>0.9707117013316193</v>
+        <v>1.03026392344609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9380476178359926</v>
+        <v>1.022279164067372</v>
       </c>
       <c r="D15">
-        <v>1.019422752682182</v>
+        <v>1.032475868528908</v>
       </c>
       <c r="E15">
-        <v>0.955434326527637</v>
+        <v>1.031645092532291</v>
       </c>
       <c r="F15">
-        <v>0.9450914176950326</v>
+        <v>1.039107090342795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038194168858277</v>
+        <v>1.033139530005039</v>
       </c>
       <c r="J15">
-        <v>0.9700774759020825</v>
+        <v>1.028909984098719</v>
       </c>
       <c r="K15">
-        <v>1.033917503309182</v>
+        <v>1.036040245904281</v>
       </c>
       <c r="L15">
-        <v>0.9711717148089754</v>
+        <v>1.035212561170535</v>
       </c>
       <c r="M15">
-        <v>0.9610506542248689</v>
+        <v>1.04264698929476</v>
       </c>
       <c r="N15">
-        <v>0.9714550971873052</v>
+        <v>1.030371154293764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9437393801490579</v>
+        <v>1.023125100792991</v>
       </c>
       <c r="D16">
-        <v>1.022432116566999</v>
+        <v>1.032839254656841</v>
       </c>
       <c r="E16">
-        <v>0.960782386782569</v>
+        <v>1.032433657882081</v>
       </c>
       <c r="F16">
-        <v>0.9521319913910222</v>
+        <v>1.04004990439288</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040238385713759</v>
+        <v>1.033288197129189</v>
       </c>
       <c r="J16">
-        <v>0.974293154617015</v>
+        <v>1.029531602377741</v>
       </c>
       <c r="K16">
-        <v>1.036372304928369</v>
+        <v>1.036288070056085</v>
       </c>
       <c r="L16">
-        <v>0.9758588814951997</v>
+        <v>1.035883929224102</v>
       </c>
       <c r="M16">
-        <v>0.9673834581376264</v>
+        <v>1.043473045220638</v>
       </c>
       <c r="N16">
-        <v>0.9756767626495582</v>
+        <v>1.030993655342042</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9472007238390807</v>
+        <v>1.023654422481999</v>
       </c>
       <c r="D17">
-        <v>1.024259390782195</v>
+        <v>1.033065691305821</v>
       </c>
       <c r="E17">
-        <v>0.9640296525008144</v>
+        <v>1.032926674898548</v>
       </c>
       <c r="F17">
-        <v>0.9563896432203751</v>
+        <v>1.040638220785842</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04146649589</v>
+        <v>1.033379566517304</v>
       </c>
       <c r="J17">
-        <v>0.9768508326131335</v>
+        <v>1.029920103310821</v>
       </c>
       <c r="K17">
-        <v>1.037855027411716</v>
+        <v>1.036441789741885</v>
       </c>
       <c r="L17">
-        <v>0.9786992033437789</v>
+        <v>1.036303260918313</v>
       </c>
       <c r="M17">
-        <v>0.9712081137263571</v>
+        <v>1.04398797610819</v>
       </c>
       <c r="N17">
-        <v>0.9782380728418011</v>
+        <v>1.031382707991009</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9491830524397391</v>
+        <v>1.023962698241253</v>
       </c>
       <c r="D18">
-        <v>1.025304739453118</v>
+        <v>1.033197226132506</v>
       </c>
       <c r="E18">
-        <v>0.9658876595408007</v>
+        <v>1.033213660433471</v>
       </c>
       <c r="F18">
-        <v>0.9588198484976043</v>
+        <v>1.040980269905518</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042164475467649</v>
+        <v>1.033432182106289</v>
       </c>
       <c r="J18">
-        <v>0.9783135498097718</v>
+        <v>1.030146199633057</v>
       </c>
       <c r="K18">
-        <v>1.038700522119799</v>
+        <v>1.036530827853114</v>
       </c>
       <c r="L18">
-        <v>0.980322394882282</v>
+        <v>1.036547205300447</v>
       </c>
       <c r="M18">
-        <v>0.9733893947080164</v>
+        <v>1.044287167478048</v>
       </c>
       <c r="N18">
-        <v>0.9797028672646342</v>
+        <v>1.031609125395956</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9498529954996371</v>
+        <v>1.024067733213478</v>
       </c>
       <c r="D19">
-        <v>1.025657817828177</v>
+        <v>1.033241984279748</v>
       </c>
       <c r="E19">
-        <v>0.966515304414453</v>
+        <v>1.033311416593932</v>
       </c>
       <c r="F19">
-        <v>0.9596398061773413</v>
+        <v>1.041096712817952</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042399456189098</v>
+        <v>1.033450007636076</v>
       </c>
       <c r="J19">
-        <v>0.9788075409718034</v>
+        <v>1.030223206498527</v>
       </c>
       <c r="K19">
-        <v>1.038985638262924</v>
+        <v>1.036561081788341</v>
       </c>
       <c r="L19">
-        <v>0.9808703886617268</v>
+        <v>1.036630275039352</v>
       </c>
       <c r="M19">
-        <v>0.9741250645843346</v>
+        <v>1.044388987927526</v>
       </c>
       <c r="N19">
-        <v>0.9801975599507776</v>
+        <v>1.031686241620008</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9468331976564737</v>
+        <v>1.023597679840849</v>
       </c>
       <c r="D20">
-        <v>1.024065486368347</v>
+        <v>1.033041452860111</v>
       </c>
       <c r="E20">
-        <v>0.9636850382493027</v>
+        <v>1.032873839229191</v>
       </c>
       <c r="F20">
-        <v>0.9559384254212036</v>
+        <v>1.040575214530187</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041336654581524</v>
+        <v>1.033369833660306</v>
       </c>
       <c r="J20">
-        <v>0.9765794760067454</v>
+        <v>1.029878473634195</v>
       </c>
       <c r="K20">
-        <v>1.037697972956624</v>
+        <v>1.036425361634874</v>
       </c>
       <c r="L20">
-        <v>0.9783979825845991</v>
+        <v>1.036258337367457</v>
       </c>
       <c r="M20">
-        <v>0.9708029696204478</v>
+        <v>1.043932848916261</v>
       </c>
       <c r="N20">
-        <v>0.9779663308779066</v>
+        <v>1.031341019195468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.936566393684222</v>
+        <v>1.022063953326726</v>
       </c>
       <c r="D21">
-        <v>1.018638810156006</v>
+        <v>1.032383131420041</v>
       </c>
       <c r="E21">
-        <v>0.9540408397614665</v>
+        <v>1.031444351931683</v>
       </c>
       <c r="F21">
-        <v>0.9432511471052597</v>
+        <v>1.038866731559072</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037657347126794</v>
+        <v>1.033101197838014</v>
       </c>
       <c r="J21">
-        <v>0.9689783948913813</v>
+        <v>1.028751699154055</v>
       </c>
       <c r="K21">
-        <v>1.03327546423984</v>
+        <v>1.035976782303958</v>
       </c>
       <c r="L21">
-        <v>0.9699485676467937</v>
+        <v>1.035041527285853</v>
       </c>
       <c r="M21">
-        <v>0.9593937691597143</v>
+        <v>1.042436233416507</v>
       </c>
       <c r="N21">
-        <v>0.9703544553555022</v>
+        <v>1.030212644566323</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9297197339836883</v>
+        <v>1.021095325278542</v>
       </c>
       <c r="D22">
-        <v>1.015012000514718</v>
+        <v>1.031964318115221</v>
       </c>
       <c r="E22">
-        <v>0.9475904493876209</v>
+        <v>1.030540233873554</v>
       </c>
       <c r="F22">
-        <v>0.934701606920429</v>
+        <v>1.037782441778778</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035151390204446</v>
+        <v>1.032926161980319</v>
       </c>
       <c r="J22">
-        <v>0.9638875391452885</v>
+        <v>1.028038585388999</v>
       </c>
       <c r="K22">
-        <v>1.030291819644366</v>
+        <v>1.035689101706459</v>
       </c>
       <c r="L22">
-        <v>0.9642769053672117</v>
+        <v>1.034270577660712</v>
       </c>
       <c r="M22">
-        <v>0.9516879783940121</v>
+        <v>1.041484685025931</v>
       </c>
       <c r="N22">
-        <v>0.9652563700103208</v>
+        <v>1.029498518097925</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9333898216221548</v>
+        <v>1.021609226706962</v>
       </c>
       <c r="D23">
-        <v>1.016956705102613</v>
+        <v>1.032186804472012</v>
       </c>
       <c r="E23">
-        <v>0.9510500273456577</v>
+        <v>1.031020034891776</v>
       </c>
       <c r="F23">
-        <v>0.9392933697494841</v>
+        <v>1.038358208304548</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03649963084688</v>
+        <v>1.033019534256294</v>
       </c>
       <c r="J23">
-        <v>0.9666186006048886</v>
+        <v>1.028417066435238</v>
       </c>
       <c r="K23">
-        <v>1.031894356525993</v>
+        <v>1.035842142344975</v>
       </c>
       <c r="L23">
-        <v>0.9673208039947595</v>
+        <v>1.034679835423222</v>
       </c>
       <c r="M23">
-        <v>0.9558282307612873</v>
+        <v>1.041990126642446</v>
       </c>
       <c r="N23">
-        <v>0.967991309890451</v>
+        <v>1.029877536630662</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9469993794389132</v>
+        <v>1.023623320845873</v>
       </c>
       <c r="D24">
-        <v>1.024153166373171</v>
+        <v>1.033052406844958</v>
       </c>
       <c r="E24">
-        <v>0.9638408654273438</v>
+        <v>1.032897715195081</v>
       </c>
       <c r="F24">
-        <v>0.9561424748113465</v>
+        <v>1.040603687761877</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041395380728603</v>
+        <v>1.033374233616508</v>
       </c>
       <c r="J24">
-        <v>0.9767021799039622</v>
+        <v>1.029897285867994</v>
       </c>
       <c r="K24">
-        <v>1.037768998616377</v>
+        <v>1.036432786717582</v>
       </c>
       <c r="L24">
-        <v>0.978534194283968</v>
+        <v>1.036278638378357</v>
       </c>
       <c r="M24">
-        <v>0.9709861891338452</v>
+        <v>1.043957762102707</v>
       </c>
       <c r="N24">
-        <v>0.9780892090287319</v>
+        <v>1.031359858144796</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9613723783788198</v>
+        <v>1.025942224591453</v>
       </c>
       <c r="D25">
-        <v>1.031709119604513</v>
+        <v>1.034035641369704</v>
       </c>
       <c r="E25">
-        <v>0.9772849463173233</v>
+        <v>1.03505383257525</v>
       </c>
       <c r="F25">
-        <v>0.9736310665653503</v>
+        <v>1.043166122100426</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046363431642362</v>
+        <v>1.033759228360486</v>
       </c>
       <c r="J25">
-        <v>0.9872735072104722</v>
+        <v>1.031595037852785</v>
       </c>
       <c r="K25">
-        <v>1.043834355598214</v>
+        <v>1.037093725874251</v>
       </c>
       <c r="L25">
-        <v>0.9902464255625598</v>
+        <v>1.038108708698885</v>
       </c>
       <c r="M25">
-        <v>0.9866530005091667</v>
+        <v>1.046195680287956</v>
       </c>
       <c r="N25">
-        <v>0.9886755488325649</v>
+        <v>1.033060021132141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027777443275147</v>
+        <v>0.97192883361599</v>
       </c>
       <c r="D2">
-        <v>1.034802810138583</v>
+        <v>1.037211065243125</v>
       </c>
       <c r="E2">
-        <v>1.036755587930699</v>
+        <v>0.9871163388503045</v>
       </c>
       <c r="F2">
-        <v>1.045175645495356</v>
+        <v>0.9862698372848554</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034044921997951</v>
+        <v>1.04985446932411</v>
       </c>
       <c r="J2">
-        <v>1.032933430592864</v>
+        <v>0.9949828388525587</v>
       </c>
       <c r="K2">
-        <v>1.037601237135002</v>
+        <v>1.04817523480771</v>
       </c>
       <c r="L2">
-        <v>1.039548421822541</v>
+        <v>0.9987581303392016</v>
       </c>
       <c r="M2">
-        <v>1.047944622558245</v>
+        <v>0.997923828239665</v>
       </c>
       <c r="N2">
-        <v>1.034400314543426</v>
+        <v>0.996395828609856</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02910187858249</v>
+        <v>0.9791559636035496</v>
       </c>
       <c r="D3">
-        <v>1.035349979543521</v>
+        <v>1.040944684750275</v>
       </c>
       <c r="E3">
-        <v>1.037981007789417</v>
+        <v>0.9938251146418609</v>
       </c>
       <c r="F3">
-        <v>1.046615171083977</v>
+        <v>0.9948167391137843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034239994587896</v>
+        <v>1.052153784768317</v>
       </c>
       <c r="J3">
-        <v>1.03389627101164</v>
+        <v>1.000231449763013</v>
       </c>
       <c r="K3">
-        <v>1.037958367879821</v>
+        <v>1.051079161963475</v>
       </c>
       <c r="L3">
-        <v>1.040582406759339</v>
+        <v>1.004537618781723</v>
       </c>
       <c r="M3">
-        <v>1.04919389986713</v>
+        <v>1.005516373169839</v>
       </c>
       <c r="N3">
-        <v>1.035364522306036</v>
+        <v>1.001651893149827</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029955198089136</v>
+        <v>0.9836531936296438</v>
       </c>
       <c r="D4">
-        <v>1.035699477172608</v>
+        <v>1.043250952242688</v>
       </c>
       <c r="E4">
-        <v>1.038769278755952</v>
+        <v>0.997990264011427</v>
       </c>
       <c r="F4">
-        <v>1.04753768032756</v>
+        <v>1.000089526202014</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034360504729651</v>
+        <v>1.053542499217016</v>
       </c>
       <c r="J4">
-        <v>1.034515204054786</v>
+        <v>1.003484501667255</v>
       </c>
       <c r="K4">
-        <v>1.038184202099592</v>
+        <v>1.052853962817649</v>
       </c>
       <c r="L4">
-        <v>1.041246260345409</v>
+        <v>1.008113005448739</v>
       </c>
       <c r="M4">
-        <v>1.04999281335286</v>
+        <v>1.010186870841459</v>
       </c>
       <c r="N4">
-        <v>1.035984334305097</v>
+        <v>1.004909564760904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03031306210619</v>
+        <v>0.9855039310703622</v>
       </c>
       <c r="D5">
-        <v>1.035845315249325</v>
+        <v>1.044195698618059</v>
       </c>
       <c r="E5">
-        <v>1.039099561511138</v>
+        <v>0.9997021257206232</v>
       </c>
       <c r="F5">
-        <v>1.047923370719239</v>
+        <v>1.002248845947917</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034409799648978</v>
+        <v>1.054103844037649</v>
       </c>
       <c r="J5">
-        <v>1.034774431696239</v>
+        <v>1.004820166124529</v>
       </c>
       <c r="K5">
-        <v>1.03827788563578</v>
+        <v>1.0535764704737</v>
       </c>
       <c r="L5">
-        <v>1.041524106551226</v>
+        <v>1.009579456660632</v>
       </c>
       <c r="M5">
-        <v>1.050326424833028</v>
+        <v>1.012096284025215</v>
       </c>
       <c r="N5">
-        <v>1.036243930079534</v>
+        <v>1.00624712601491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030373098203734</v>
+        <v>0.9858124190299495</v>
       </c>
       <c r="D6">
-        <v>1.035869738147932</v>
+        <v>1.044352909335572</v>
       </c>
       <c r="E6">
-        <v>1.039154952805458</v>
+        <v>0.9999873367344845</v>
       </c>
       <c r="F6">
-        <v>1.047988005133397</v>
+        <v>1.002608156902615</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034417996301208</v>
+        <v>1.05419681197764</v>
       </c>
       <c r="J6">
-        <v>1.034817900370803</v>
+        <v>1.005042621334321</v>
       </c>
       <c r="K6">
-        <v>1.038293541800386</v>
+        <v>1.053696433289837</v>
       </c>
       <c r="L6">
-        <v>1.041570685787011</v>
+        <v>1.009823603816569</v>
       </c>
       <c r="M6">
-        <v>1.050382307935886</v>
+        <v>1.012413818358781</v>
       </c>
       <c r="N6">
-        <v>1.036287460484602</v>
+        <v>1.006469897136615</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029959983297485</v>
+        <v>0.9836780763436692</v>
       </c>
       <c r="D7">
-        <v>1.035701430153224</v>
+        <v>1.043263671703608</v>
       </c>
       <c r="E7">
-        <v>1.038773696345654</v>
+        <v>0.9980132882778067</v>
       </c>
       <c r="F7">
-        <v>1.047542842303623</v>
+        <v>1.000118599227175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034361168783341</v>
+        <v>1.053550086693709</v>
       </c>
       <c r="J7">
-        <v>1.034518671676022</v>
+        <v>1.003502471406296</v>
       </c>
       <c r="K7">
-        <v>1.038185458842597</v>
+        <v>1.052863708167708</v>
       </c>
       <c r="L7">
-        <v>1.041249977793014</v>
+        <v>1.008132740900112</v>
       </c>
       <c r="M7">
-        <v>1.049997279918407</v>
+        <v>1.010212592087388</v>
       </c>
       <c r="N7">
-        <v>1.035987806850752</v>
+        <v>1.004927560019035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028225809726419</v>
+        <v>0.9744103116402496</v>
       </c>
       <c r="D8">
-        <v>1.034988672589767</v>
+        <v>1.03849648670269</v>
       </c>
       <c r="E8">
-        <v>1.037170694062133</v>
+        <v>0.9894219084249045</v>
       </c>
       <c r="F8">
-        <v>1.045664002935994</v>
+        <v>0.9892144308055767</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034112031452158</v>
+        <v>1.050652861970371</v>
       </c>
       <c r="J8">
-        <v>1.033259678089199</v>
+        <v>0.9967877849616652</v>
       </c>
       <c r="K8">
-        <v>1.037723019240659</v>
+        <v>1.049179074717376</v>
       </c>
       <c r="L8">
-        <v>1.039898944279025</v>
+        <v>1.000747099193155</v>
       </c>
       <c r="M8">
-        <v>1.048368785826935</v>
+        <v>1.0005425090773</v>
       </c>
       <c r="N8">
-        <v>1.034727025348628</v>
+        <v>0.9982033379494677</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025141370326956</v>
+        <v>0.9565485817940966</v>
       </c>
       <c r="D9">
-        <v>1.033697763537451</v>
+        <v>1.029180088417485</v>
       </c>
       <c r="E9">
-        <v>1.034309916142613</v>
+        <v>0.9727802889027207</v>
       </c>
       <c r="F9">
-        <v>1.042284024192095</v>
+        <v>0.9677970464676386</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033629206838212</v>
+        <v>1.044721676872487</v>
       </c>
       <c r="J9">
-        <v>1.03100951615009</v>
+        <v>0.9837348784991936</v>
       </c>
       <c r="K9">
-        <v>1.036867869842036</v>
+        <v>1.041816837036654</v>
       </c>
       <c r="L9">
-        <v>1.03747801706583</v>
+        <v>0.9863309846472269</v>
       </c>
       <c r="M9">
-        <v>1.045426238026363</v>
+        <v>0.9814351353364763</v>
       </c>
       <c r="N9">
-        <v>1.032473667921467</v>
+        <v>0.9851318948626302</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023065218637142</v>
+        <v>0.9433430764469618</v>
       </c>
       <c r="D10">
-        <v>1.032813591761838</v>
+        <v>1.022222756581652</v>
       </c>
       <c r="E10">
-        <v>1.032377863037827</v>
+        <v>0.9604103500688268</v>
       </c>
       <c r="F10">
-        <v>1.039983268898548</v>
+        <v>0.9516433589227489</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033277779622235</v>
+        <v>1.040097032632395</v>
       </c>
       <c r="J10">
-        <v>1.029487628823372</v>
+        <v>0.9740000234290477</v>
       </c>
       <c r="K10">
-        <v>1.036270613761782</v>
+        <v>1.036202039084652</v>
       </c>
       <c r="L10">
-        <v>1.035836453195587</v>
+        <v>0.975533191865115</v>
       </c>
       <c r="M10">
-        <v>1.043414695831009</v>
+        <v>0.9669442723682998</v>
       </c>
       <c r="N10">
-        <v>1.030949619340183</v>
+        <v>0.975383215181681</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022161364788882</v>
+        <v>0.9372385722290011</v>
       </c>
       <c r="D11">
-        <v>1.032425121673025</v>
+        <v>1.018994598264719</v>
       </c>
       <c r="E11">
-        <v>1.031535219976805</v>
+        <v>0.9546732909697786</v>
       </c>
       <c r="F11">
-        <v>1.038975550853281</v>
+        <v>0.9440866722026271</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033118573627305</v>
+        <v>1.037901197745229</v>
       </c>
       <c r="J11">
-        <v>1.028823351196992</v>
+        <v>0.969477258521324</v>
       </c>
       <c r="K11">
-        <v>1.036005528687767</v>
+        <v>1.03356697932445</v>
       </c>
       <c r="L11">
-        <v>1.035118954516422</v>
+        <v>0.970503802308173</v>
       </c>
       <c r="M11">
-        <v>1.042531658484288</v>
+        <v>0.9601461133759681</v>
       </c>
       <c r="N11">
-        <v>1.030284398363379</v>
+        <v>0.9708540274290201</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021824888896377</v>
+        <v>0.9349044322132645</v>
       </c>
       <c r="D12">
-        <v>1.032279979857933</v>
+        <v>1.017758886246742</v>
       </c>
       <c r="E12">
-        <v>1.03122130258515</v>
+        <v>0.9524764757990669</v>
       </c>
       <c r="F12">
-        <v>1.038599495818703</v>
+        <v>0.9411823732225245</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033058377540404</v>
+        <v>1.037052725653021</v>
       </c>
       <c r="J12">
-        <v>1.028575803415059</v>
+        <v>0.9677442330601321</v>
       </c>
       <c r="K12">
-        <v>1.035906089581178</v>
+        <v>1.03255358349242</v>
       </c>
       <c r="L12">
-        <v>1.034851426150483</v>
+        <v>0.9685745297668533</v>
       </c>
       <c r="M12">
-        <v>1.042201834362181</v>
+        <v>0.957530385452436</v>
       </c>
       <c r="N12">
-        <v>1.030036499035202</v>
+        <v>0.9691185408728926</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021897098016509</v>
+        <v>0.9354082895347757</v>
       </c>
       <c r="D13">
-        <v>1.032311151633158</v>
+        <v>1.018025687456777</v>
       </c>
       <c r="E13">
-        <v>1.031288680880304</v>
+        <v>0.9529508391376271</v>
       </c>
       <c r="F13">
-        <v>1.038680240128699</v>
+        <v>0.9418100061780486</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03307133781701</v>
+        <v>1.03723628300665</v>
       </c>
       <c r="J13">
-        <v>1.028628939880647</v>
+        <v>0.968118502628039</v>
       </c>
       <c r="K13">
-        <v>1.035927463762702</v>
+        <v>1.032772601592892</v>
       </c>
       <c r="L13">
-        <v>1.034908858134378</v>
+        <v>0.9689912806200549</v>
       </c>
       <c r="M13">
-        <v>1.042272665625452</v>
+        <v>0.9580957909770492</v>
       </c>
       <c r="N13">
-        <v>1.030089710960665</v>
+        <v>0.9694933419465152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02213356684867</v>
+        <v>0.9370470481270068</v>
       </c>
       <c r="D14">
-        <v>1.032413141495155</v>
+        <v>1.018893229308563</v>
       </c>
       <c r="E14">
-        <v>1.031509290358337</v>
+        <v>0.9544931012745352</v>
       </c>
       <c r="F14">
-        <v>1.038944501713727</v>
+        <v>0.9438486753795807</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033113619439144</v>
+        <v>1.037831757977495</v>
       </c>
       <c r="J14">
-        <v>1.0288029053152</v>
+        <v>0.9693351342566799</v>
       </c>
       <c r="K14">
-        <v>1.03599732892117</v>
+        <v>1.033483944447968</v>
       </c>
       <c r="L14">
-        <v>1.03509686136554</v>
+        <v>0.9703456280547282</v>
       </c>
       <c r="M14">
-        <v>1.042504432450147</v>
+        <v>0.9599318239289967</v>
       </c>
       <c r="N14">
-        <v>1.03026392344609</v>
+        <v>0.9707117013316182</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022279164067372</v>
+        <v>0.9380476178359917</v>
       </c>
       <c r="D15">
-        <v>1.032475868528908</v>
+        <v>1.019422752682181</v>
       </c>
       <c r="E15">
-        <v>1.031645092532291</v>
+        <v>0.9554343265276357</v>
       </c>
       <c r="F15">
-        <v>1.039107090342795</v>
+        <v>0.9450914176950312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033139530005039</v>
+        <v>1.038194168858277</v>
       </c>
       <c r="J15">
-        <v>1.028909984098719</v>
+        <v>0.9700774759020815</v>
       </c>
       <c r="K15">
-        <v>1.036040245904281</v>
+        <v>1.033917503309181</v>
       </c>
       <c r="L15">
-        <v>1.035212561170535</v>
+        <v>0.9711717148089741</v>
       </c>
       <c r="M15">
-        <v>1.04264698929476</v>
+        <v>0.9610506542248677</v>
       </c>
       <c r="N15">
-        <v>1.030371154293764</v>
+        <v>0.9714550971873044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023125100792991</v>
+        <v>0.9437393801490577</v>
       </c>
       <c r="D16">
-        <v>1.032839254656841</v>
+        <v>1.022432116566999</v>
       </c>
       <c r="E16">
-        <v>1.032433657882081</v>
+        <v>0.9607823867825683</v>
       </c>
       <c r="F16">
-        <v>1.04004990439288</v>
+        <v>0.9521319913910214</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033288197129189</v>
+        <v>1.040238385713759</v>
       </c>
       <c r="J16">
-        <v>1.029531602377741</v>
+        <v>0.9742931546170146</v>
       </c>
       <c r="K16">
-        <v>1.036288070056085</v>
+        <v>1.03637230492837</v>
       </c>
       <c r="L16">
-        <v>1.035883929224102</v>
+        <v>0.9758588814951989</v>
       </c>
       <c r="M16">
-        <v>1.043473045220638</v>
+        <v>0.9673834581376259</v>
       </c>
       <c r="N16">
-        <v>1.030993655342042</v>
+        <v>0.9756767626495575</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023654422481999</v>
+        <v>0.9472007238390805</v>
       </c>
       <c r="D17">
-        <v>1.033065691305821</v>
+        <v>1.024259390782195</v>
       </c>
       <c r="E17">
-        <v>1.032926674898548</v>
+        <v>0.9640296525008144</v>
       </c>
       <c r="F17">
-        <v>1.040638220785842</v>
+        <v>0.9563896432203751</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033379566517304</v>
+        <v>1.04146649589</v>
       </c>
       <c r="J17">
-        <v>1.029920103310821</v>
+        <v>0.9768508326131332</v>
       </c>
       <c r="K17">
-        <v>1.036441789741885</v>
+        <v>1.037855027411717</v>
       </c>
       <c r="L17">
-        <v>1.036303260918313</v>
+        <v>0.9786992033437787</v>
       </c>
       <c r="M17">
-        <v>1.04398797610819</v>
+        <v>0.9712081137263571</v>
       </c>
       <c r="N17">
-        <v>1.031382707991009</v>
+        <v>0.9782380728418004</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023962698241253</v>
+        <v>0.949183052439739</v>
       </c>
       <c r="D18">
-        <v>1.033197226132506</v>
+        <v>1.025304739453119</v>
       </c>
       <c r="E18">
-        <v>1.033213660433471</v>
+        <v>0.9658876595408006</v>
       </c>
       <c r="F18">
-        <v>1.040980269905518</v>
+        <v>0.9588198484976042</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033432182106289</v>
+        <v>1.042164475467649</v>
       </c>
       <c r="J18">
-        <v>1.030146199633057</v>
+        <v>0.9783135498097717</v>
       </c>
       <c r="K18">
-        <v>1.036530827853114</v>
+        <v>1.038700522119799</v>
       </c>
       <c r="L18">
-        <v>1.036547205300447</v>
+        <v>0.980322394882282</v>
       </c>
       <c r="M18">
-        <v>1.044287167478048</v>
+        <v>0.9733893947080163</v>
       </c>
       <c r="N18">
-        <v>1.031609125395956</v>
+        <v>0.979702867264634</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024067733213478</v>
+        <v>0.9498529954996364</v>
       </c>
       <c r="D19">
-        <v>1.033241984279748</v>
+        <v>1.025657817828177</v>
       </c>
       <c r="E19">
-        <v>1.033311416593932</v>
+        <v>0.9665153044144522</v>
       </c>
       <c r="F19">
-        <v>1.041096712817952</v>
+        <v>0.9596398061773405</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033450007636076</v>
+        <v>1.042399456189098</v>
       </c>
       <c r="J19">
-        <v>1.030223206498527</v>
+        <v>0.9788075409718028</v>
       </c>
       <c r="K19">
-        <v>1.036561081788341</v>
+        <v>1.038985638262924</v>
       </c>
       <c r="L19">
-        <v>1.036630275039352</v>
+        <v>0.9808703886617262</v>
       </c>
       <c r="M19">
-        <v>1.044388987927526</v>
+        <v>0.9741250645843335</v>
       </c>
       <c r="N19">
-        <v>1.031686241620008</v>
+        <v>0.9801975599507771</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023597679840849</v>
+        <v>0.9468331976564744</v>
       </c>
       <c r="D20">
-        <v>1.033041452860111</v>
+        <v>1.024065486368348</v>
       </c>
       <c r="E20">
-        <v>1.032873839229191</v>
+        <v>0.9636850382493037</v>
       </c>
       <c r="F20">
-        <v>1.040575214530187</v>
+        <v>0.9559384254212048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033369833660306</v>
+        <v>1.041336654581524</v>
       </c>
       <c r="J20">
-        <v>1.029878473634195</v>
+        <v>0.9765794760067462</v>
       </c>
       <c r="K20">
-        <v>1.036425361634874</v>
+        <v>1.037697972956624</v>
       </c>
       <c r="L20">
-        <v>1.036258337367457</v>
+        <v>0.9783979825845998</v>
       </c>
       <c r="M20">
-        <v>1.043932848916261</v>
+        <v>0.9708029696204489</v>
       </c>
       <c r="N20">
-        <v>1.031341019195468</v>
+        <v>0.9779663308779074</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022063953326726</v>
+        <v>0.9365663936842221</v>
       </c>
       <c r="D21">
-        <v>1.032383131420041</v>
+        <v>1.018638810156006</v>
       </c>
       <c r="E21">
-        <v>1.031444351931683</v>
+        <v>0.954040839761466</v>
       </c>
       <c r="F21">
-        <v>1.038866731559072</v>
+        <v>0.9432511471052593</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033101197838014</v>
+        <v>1.037657347126794</v>
       </c>
       <c r="J21">
-        <v>1.028751699154055</v>
+        <v>0.9689783948913809</v>
       </c>
       <c r="K21">
-        <v>1.035976782303958</v>
+        <v>1.03327546423984</v>
       </c>
       <c r="L21">
-        <v>1.035041527285853</v>
+        <v>0.9699485676467935</v>
       </c>
       <c r="M21">
-        <v>1.042436233416507</v>
+        <v>0.9593937691597141</v>
       </c>
       <c r="N21">
-        <v>1.030212644566323</v>
+        <v>0.9703544553555022</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021095325278542</v>
+        <v>0.9297197339836886</v>
       </c>
       <c r="D22">
-        <v>1.031964318115221</v>
+        <v>1.015012000514719</v>
       </c>
       <c r="E22">
-        <v>1.030540233873554</v>
+        <v>0.947590449387621</v>
       </c>
       <c r="F22">
-        <v>1.037782441778778</v>
+        <v>0.934701606920429</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032926161980319</v>
+        <v>1.035151390204446</v>
       </c>
       <c r="J22">
-        <v>1.028038585388999</v>
+        <v>0.9638875391452887</v>
       </c>
       <c r="K22">
-        <v>1.035689101706459</v>
+        <v>1.030291819644366</v>
       </c>
       <c r="L22">
-        <v>1.034270577660712</v>
+        <v>0.9642769053672119</v>
       </c>
       <c r="M22">
-        <v>1.041484685025931</v>
+        <v>0.9516879783940124</v>
       </c>
       <c r="N22">
-        <v>1.029498518097925</v>
+        <v>0.9652563700103212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021609226706962</v>
+        <v>0.9333898216221543</v>
       </c>
       <c r="D23">
-        <v>1.032186804472012</v>
+        <v>1.016956705102614</v>
       </c>
       <c r="E23">
-        <v>1.031020034891776</v>
+        <v>0.951050027345657</v>
       </c>
       <c r="F23">
-        <v>1.038358208304548</v>
+        <v>0.9392933697494835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033019534256294</v>
+        <v>1.03649963084688</v>
       </c>
       <c r="J23">
-        <v>1.028417066435238</v>
+        <v>0.9666186006048882</v>
       </c>
       <c r="K23">
-        <v>1.035842142344975</v>
+        <v>1.031894356525993</v>
       </c>
       <c r="L23">
-        <v>1.034679835423222</v>
+        <v>0.9673208039947588</v>
       </c>
       <c r="M23">
-        <v>1.041990126642446</v>
+        <v>0.9558282307612868</v>
       </c>
       <c r="N23">
-        <v>1.029877536630662</v>
+        <v>0.9679913098904502</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023623320845873</v>
+        <v>0.9469993794389131</v>
       </c>
       <c r="D24">
-        <v>1.033052406844958</v>
+        <v>1.024153166373171</v>
       </c>
       <c r="E24">
-        <v>1.032897715195081</v>
+        <v>0.9638408654273434</v>
       </c>
       <c r="F24">
-        <v>1.040603687761877</v>
+        <v>0.9561424748113464</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033374233616508</v>
+        <v>1.041395380728603</v>
       </c>
       <c r="J24">
-        <v>1.029897285867994</v>
+        <v>0.9767021799039618</v>
       </c>
       <c r="K24">
-        <v>1.036432786717582</v>
+        <v>1.037768998616377</v>
       </c>
       <c r="L24">
-        <v>1.036278638378357</v>
+        <v>0.9785341942839678</v>
       </c>
       <c r="M24">
-        <v>1.043957762102707</v>
+        <v>0.970986189133845</v>
       </c>
       <c r="N24">
-        <v>1.031359858144796</v>
+        <v>0.9780892090287315</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025942224591453</v>
+        <v>0.9613723783788191</v>
       </c>
       <c r="D25">
-        <v>1.034035641369704</v>
+        <v>1.031709119604514</v>
       </c>
       <c r="E25">
-        <v>1.03505383257525</v>
+        <v>0.9772849463173225</v>
       </c>
       <c r="F25">
-        <v>1.043166122100426</v>
+        <v>0.9736310665653495</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033759228360486</v>
+        <v>1.046363431642362</v>
       </c>
       <c r="J25">
-        <v>1.031595037852785</v>
+        <v>0.9872735072104716</v>
       </c>
       <c r="K25">
-        <v>1.037093725874251</v>
+        <v>1.043834355598214</v>
       </c>
       <c r="L25">
-        <v>1.038108708698885</v>
+        <v>0.990246425562559</v>
       </c>
       <c r="M25">
-        <v>1.046195680287956</v>
+        <v>0.986653000509166</v>
       </c>
       <c r="N25">
-        <v>1.033060021132141</v>
+        <v>0.9886755488325645</v>
       </c>
     </row>
   </sheetData>
